--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/NORTH_DAKOTA_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/NORTH_DAKOTA_2011.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,45 +360,41 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>La Paz</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="3">
@@ -407,88 +403,68 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CELAYA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Cortazar</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>LEON</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.16666666666666699</t>
-        </is>
+          <t>Salamanca</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -497,54 +473,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.33333333333333298</t>
-        </is>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Degollado</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.11111111111111099</t>
-        </is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="11">
@@ -553,37 +517,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.16666666666666699</t>
-        </is>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Tlaquiltenango</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="13">
@@ -592,37 +548,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QUERETARO DE ARTEAGA</t>
+          <t>Queretaro De Arteaga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>QUERETARO</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="15">
@@ -631,37 +579,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NAVOJOA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.11111111111111099</t>
-        </is>
+          <t>Navojoa</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="17">
@@ -670,54 +610,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.11111111111111099</t>
-        </is>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Nuevo Laredo</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Tampico</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="20">
@@ -726,37 +654,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.11111111111111099</t>
-        </is>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PANUCO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Panuco</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="22">
@@ -765,37 +685,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+          <t>Villa Hidalgo</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="24">
@@ -804,39 +716,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.5555555555555997E-2</t>
-        </is>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Septiembre del 2013</t>
-        </is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/NORTH_DAKOTA_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/NORTH_DAKOTA_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
